--- a/biology/Zoologie/Gobiodon_okinawae/Gobiodon_okinawae.xlsx
+++ b/biology/Zoologie/Gobiodon_okinawae/Gobiodon_okinawae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie corail jaune (Gobiodon okinawae) également connu sous le nom de gobie Okinawa, est une espèce de poisson de la famille des gobiidés originaire de l'ouest du Pacifique, au sud du Japon et du sud de la Grande barrière de corail. Comme son nom l'indique, Il est de couleur jaune vif, sauf un point blanchâtre sur chaque joue. Leur personnalité est tout aussi intéressante que leur coloration, il est souvent maintenu en aquarium récifal pour son comportement jovial et sociable.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">G. okinawae ont généralement une forme fusiforme avec sept épines dorsales, dix rayons dorsale, anale une épine dorsale, anale et neuf rayons mous. Ils peuvent atteindre une longueur de 3,5 cm.
 Une autre espèce, Gobiodon citrinus, le gobie corail citron, a une apparence similaire à Gobiodon okinawae. A la différence de G. okinawae, toutefois, il n'a pas de marques de bleu et blanc du visage de G. citrinus.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gobie corail jaune vit dans les récifs de corail à l'abri des lagunes. Contrairement à la plupart des gobies, qui sont fouisseurs, les Gobiodon  se perchent dans les branches d'Acropora, en groupes de cinq à quinze individus.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des gobies sont carnivores, et le Gobie corail jaune est sous-catégorisé comme un planctonivore. Compte tenu de leur petite taille, leur régime alimentaire se compose principalement de mésoplancton. Ce sont des opportunistes, pas des chasseurs.
 </t>
@@ -606,7 +624,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gobie jaune clown ne se retrouve pas sur la Liste rouge de l'UICN. L'espèce est très résistante, avec les populations locales en mesure de doubler en quinze mois.
 </t>
@@ -637,7 +657,9 @@
           <t>En Aquarium</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie corail jaune est populaire auprès des aquariophiles et est généralement considéré comme une espèce de bac récifal. Il est particulièrement adapté au nano récif en raison de sa petite taille, et la capacité de l'aquariophile à surveiller de près son état de santé.
 En raison des questions territoriales dans le cas d'un petit aquarium, il est conseillé de le maintenir seul ou en couple.
@@ -673,7 +695,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les juvéniles Gobiodon sp. débutent la vie de sexe femelle, et sont bi-directionnels hermaphrodite protogyne, ce qui signifie que lorsqu'ils sont jumelés, si nécessaire, un changement de sexe peut intervenir pour former une paire d'élevage. Dans le cas de deux femelles formant une paire, le plus grand des deux est de sexe masculin, et dans le cas de deux mâles, intervient un petit changement de sexe pour devenir une femelle. Le seul moment où un mâle est plus petit qu'une femelle est quand un petit mâle est placé dans le même corail, comme une grande femelle.
 Près d'un millier d'œufs sont pondus autour des branches de corail. Le mâle va féconder immédiatement et les surveiller jusqu'à l'éclosion, environ cinq jours plus tard.
